--- a/Data/col_zakdog2024.xlsx
+++ b/Data/col_zakdog2024.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Сведения о заключеных договорах</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>09. Сентябрь</t>
-  </si>
-  <si>
-    <t>10. Октябрь</t>
   </si>
   <si>
     <t>БСК</t>
@@ -522,19 +519,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L19"/>
+  <dimension ref="B1:K19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="12" width="13.42578125" customWidth="1"/>
+    <col min="3" max="11" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,24 +544,23 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -575,9 +571,8 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="2:12" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:11" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -608,13 +603,10 @@
       <c r="K6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="5" t="s">
+    </row>
+    <row r="7" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="C7" s="7">
         <v>25</v>
@@ -643,13 +635,10 @@
       <c r="K7" s="7">
         <v>19</v>
       </c>
-      <c r="L7" s="7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="7">
         <v>61</v>
@@ -678,13 +667,10 @@
       <c r="K8" s="7">
         <v>53</v>
       </c>
-      <c r="L8" s="7">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
         <v>1569</v>
@@ -713,13 +699,10 @@
       <c r="K9" s="7">
         <v>1516</v>
       </c>
-      <c r="L9" s="7">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7">
         <v>120</v>
@@ -748,13 +731,10 @@
       <c r="K10" s="7">
         <v>177</v>
       </c>
-      <c r="L10" s="7">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
         <v>29</v>
@@ -783,13 +763,10 @@
       <c r="K11" s="7">
         <v>17</v>
       </c>
-      <c r="L11" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7">
         <v>163</v>
@@ -818,13 +795,10 @@
       <c r="K12" s="7">
         <v>180</v>
       </c>
-      <c r="L12" s="7">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>85</v>
@@ -853,13 +827,10 @@
       <c r="K13" s="7">
         <v>105</v>
       </c>
-      <c r="L13" s="7">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -888,13 +859,10 @@
       <c r="K14" s="7">
         <v>1</v>
       </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="7">
         <v>8</v>
@@ -923,13 +891,10 @@
       <c r="K15" s="7">
         <v>3</v>
       </c>
-      <c r="L15" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="7">
         <v>3</v>
@@ -958,13 +923,10 @@
       <c r="K16" s="7">
         <v>5</v>
       </c>
-      <c r="L16" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="7">
         <v>168</v>
@@ -993,13 +955,10 @@
       <c r="K17" s="7">
         <v>206</v>
       </c>
-      <c r="L17" s="7">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>358</v>
@@ -1028,13 +987,10 @@
       <c r="K18" s="7">
         <v>343</v>
       </c>
-      <c r="L18" s="7">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="7">
         <v>2589</v>
@@ -1062,9 +1018,6 @@
       </c>
       <c r="K19" s="7">
         <v>2625</v>
-      </c>
-      <c r="L19" s="7">
-        <v>1840</v>
       </c>
     </row>
   </sheetData>
